--- a/report_folder/report_1.b_vor.xlsx
+++ b/report_folder/report_1.b_vor.xlsx
@@ -4413,7 +4413,7 @@
         </is>
       </c>
       <c r="C27" s="14" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D27" s="14" t="n"/>
       <c r="E27" s="35" t="n"/>

--- a/report_folder/report_1.b_vor.xlsx
+++ b/report_folder/report_1.b_vor.xlsx
@@ -4288,7 +4288,7 @@
         </is>
       </c>
       <c r="C17" s="13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F17" s="14" t="inlineStr">
         <is>
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="G17" s="35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -4307,7 +4307,7 @@
       </c>
       <c r="C18" s="13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D18" s="14" t="inlineStr">
@@ -4332,7 +4332,7 @@
       </c>
       <c r="D19" s="26" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F19" s="14" t="inlineStr">
@@ -4341,7 +4341,7 @@
         </is>
       </c>
       <c r="G19" s="35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -4362,7 +4362,7 @@
       </c>
       <c r="D20" s="25" t="inlineStr">
         <is>
-          <t>0.0% der Karten</t>
+          <t>40.0% der Karten</t>
         </is>
       </c>
     </row>
@@ -4371,7 +4371,7 @@
         <v>0</v>
       </c>
       <c r="B21" s="14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C21" s="36" t="inlineStr">
         <is>
@@ -4409,11 +4409,11 @@
       <c r="A27" s="14" t="n"/>
       <c r="B27" s="14" t="inlineStr">
         <is>
-          <t>Vorstandssitzung Mai</t>
+          <t>Leitantrag ausformulieren</t>
         </is>
       </c>
       <c r="C27" s="14" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D27" s="14" t="n"/>
       <c r="E27" s="35" t="n"/>
@@ -4424,11 +4424,11 @@
       <c r="A28" s="14" t="n"/>
       <c r="B28" s="14" t="inlineStr">
         <is>
-          <t>Leitantrag ausformulieren</t>
+          <t>Vorstandssitzung Mai</t>
         </is>
       </c>
       <c r="C28" s="14" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D28" s="14" t="n"/>
       <c r="E28" s="35" t="n"/>
@@ -4439,11 +4439,11 @@
       <c r="A29" s="14" t="n"/>
       <c r="B29" s="14" t="inlineStr">
         <is>
-          <t>Vorstandssitzung Mai</t>
+          <t>Revision Vermögenshaftpflichtversicherung und Geschäftsordnung</t>
         </is>
       </c>
       <c r="C29" s="14" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D29" s="14" t="n"/>
       <c r="E29" s="35" t="n"/>
@@ -4454,11 +4454,11 @@
       <c r="A30" s="14" t="n"/>
       <c r="B30" s="14" t="inlineStr">
         <is>
-          <t>Vorstandssitzung Mai</t>
+          <t>Notartermin - Eintragung des neuen Vorstandes ⭐️</t>
         </is>
       </c>
       <c r="C30" s="14" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D30" s="14" t="n"/>
       <c r="E30" s="35" t="n"/>
@@ -4469,11 +4469,11 @@
       <c r="A31" s="14" t="n"/>
       <c r="B31" s="14" t="inlineStr">
         <is>
-          <t>Vorstandssitzung Mai</t>
+          <t>Vorstandssitzung August 2020 💩</t>
         </is>
       </c>
       <c r="C31" s="14" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D31" s="14" t="n"/>
       <c r="E31" s="35" t="n"/>
@@ -4528,7 +4528,7 @@
         </is>
       </c>
       <c r="C35" s="14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="C36" s="14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="F39" s="14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
@@ -4606,7 +4606,7 @@
         </is>
       </c>
       <c r="F40" s="14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41">
@@ -4665,7 +4665,7 @@
         </is>
       </c>
       <c r="C48" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
@@ -4680,7 +4680,7 @@
         </is>
       </c>
       <c r="C49" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -4689,8 +4689,13 @@
           <t>3.</t>
         </is>
       </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Micha Landoll</t>
+        </is>
+      </c>
       <c r="C50" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50" s="14" t="inlineStr">
         <is>
@@ -4704,8 +4709,13 @@
           <t>4.</t>
         </is>
       </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Christoph Netsch</t>
+        </is>
+      </c>
       <c r="C51" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" s="14" t="n">
         <v>0</v>
@@ -4717,8 +4727,13 @@
           <t>5.</t>
         </is>
       </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Peter Augustin</t>
+        </is>
+      </c>
       <c r="C52" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" s="14" t="n">
         <v>0</v>
@@ -4761,7 +4776,7 @@
         </is>
       </c>
       <c r="G60" s="35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
@@ -4840,10 +4855,15 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Marie-Sophie Braun</t>
+        </is>
       </c>
       <c r="G70" s="35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -4853,10 +4873,15 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Noah Brechmann</t>
+        </is>
       </c>
       <c r="G71" s="35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -4880,7 +4905,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G73" s="35" t="n">
         <v>0</v>

--- a/report_folder/report_1.b_vor.xlsx
+++ b/report_folder/report_1.b_vor.xlsx
@@ -4288,7 +4288,7 @@
         </is>
       </c>
       <c r="C17" s="13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F17" s="14" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
       </c>
       <c r="D19" s="26" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F19" s="14" t="inlineStr">
@@ -4341,7 +4341,7 @@
         </is>
       </c>
       <c r="G19" s="35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -4362,7 +4362,7 @@
       </c>
       <c r="D20" s="25" t="inlineStr">
         <is>
-          <t>40.0% der Karten</t>
+          <t>50.0% der Karten</t>
         </is>
       </c>
     </row>
@@ -4371,7 +4371,7 @@
         <v>0</v>
       </c>
       <c r="B21" s="14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C21" s="36" t="inlineStr">
         <is>
@@ -4409,11 +4409,11 @@
       <c r="A27" s="14" t="n"/>
       <c r="B27" s="14" t="inlineStr">
         <is>
-          <t>Leitantrag ausformulieren</t>
+          <t>Vorstandssitzung Mai</t>
         </is>
       </c>
       <c r="C27" s="14" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D27" s="14" t="n"/>
       <c r="E27" s="35" t="n"/>
@@ -4424,11 +4424,11 @@
       <c r="A28" s="14" t="n"/>
       <c r="B28" s="14" t="inlineStr">
         <is>
-          <t>Vorstandssitzung Mai</t>
+          <t>Revision Vermögenshaftpflichtversicherung und Geschäftsordnung</t>
         </is>
       </c>
       <c r="C28" s="14" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D28" s="14" t="n"/>
       <c r="E28" s="35" t="n"/>
@@ -4439,11 +4439,11 @@
       <c r="A29" s="14" t="n"/>
       <c r="B29" s="14" t="inlineStr">
         <is>
-          <t>Revision Vermögenshaftpflichtversicherung und Geschäftsordnung</t>
+          <t>Notartermin - Eintragung des neuen Vorstandes ⭐️</t>
         </is>
       </c>
       <c r="C29" s="14" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D29" s="14" t="n"/>
       <c r="E29" s="35" t="n"/>
@@ -4454,11 +4454,11 @@
       <c r="A30" s="14" t="n"/>
       <c r="B30" s="14" t="inlineStr">
         <is>
-          <t>Notartermin - Eintragung des neuen Vorstandes ⭐️</t>
+          <t>Vorstandssitzung August 2020 💩</t>
         </is>
       </c>
       <c r="C30" s="14" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D30" s="14" t="n"/>
       <c r="E30" s="35" t="n"/>
@@ -4469,11 +4469,11 @@
       <c r="A31" s="14" t="n"/>
       <c r="B31" s="14" t="inlineStr">
         <is>
-          <t>Vorstandssitzung August 2020 💩</t>
+          <t>Notartermin - Eintragung des neuen Vorstandes ⭐️</t>
         </is>
       </c>
       <c r="C31" s="14" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D31" s="14" t="n"/>
       <c r="E31" s="35" t="n"/>
@@ -4528,7 +4528,7 @@
         </is>
       </c>
       <c r="C35" s="14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36">
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="C36" s="14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="F39" s="14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
@@ -4606,7 +4606,7 @@
         </is>
       </c>
       <c r="F40" s="14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41">
@@ -4665,7 +4665,7 @@
         </is>
       </c>
       <c r="C48" s="14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -4676,11 +4676,11 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Noah Brechmann</t>
+          <t>Micha Landoll</t>
         </is>
       </c>
       <c r="C49" s="14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -4691,7 +4691,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Micha Landoll</t>
+          <t>Christoph Netsch</t>
         </is>
       </c>
       <c r="C50" s="14" t="n">
@@ -4711,7 +4711,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Christoph Netsch</t>
+          <t>Peter Augustin</t>
         </is>
       </c>
       <c r="C51" s="14" t="n">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Peter Augustin</t>
+          <t>Noah Brechmann</t>
         </is>
       </c>
       <c r="C52" s="14" t="n">
@@ -4776,7 +4776,7 @@
         </is>
       </c>
       <c r="G60" s="35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -4855,7 +4855,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>

--- a/report_folder/report_1.b_vor.xlsx
+++ b/report_folder/report_1.b_vor.xlsx
@@ -4288,7 +4288,7 @@
         </is>
       </c>
       <c r="C17" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F17" s="14" t="inlineStr">
         <is>
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="G17" s="35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -4307,7 +4307,7 @@
       </c>
       <c r="C18" s="13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D18" s="14" t="inlineStr">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="G18" s="35" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -4332,7 +4332,7 @@
       </c>
       <c r="D19" s="26" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="F19" s="14" t="inlineStr">
@@ -4341,7 +4341,7 @@
         </is>
       </c>
       <c r="G19" s="35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -4362,16 +4362,16 @@
       </c>
       <c r="D20" s="25" t="inlineStr">
         <is>
-          <t>50.0% der Karten</t>
+          <t>0.0% der Karten</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B21" s="14" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C21" s="36" t="inlineStr">
         <is>
@@ -4409,11 +4409,11 @@
       <c r="A27" s="14" t="n"/>
       <c r="B27" s="14" t="inlineStr">
         <is>
-          <t>Vorstandssitzung Mai</t>
+          <t>Revision Vermögenshaftpflichtversicherung und Geschäftsordnung</t>
         </is>
       </c>
       <c r="C27" s="14" t="n">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="D27" s="14" t="n"/>
       <c r="E27" s="35" t="n"/>
@@ -4424,11 +4424,11 @@
       <c r="A28" s="14" t="n"/>
       <c r="B28" s="14" t="inlineStr">
         <is>
-          <t>Revision Vermögenshaftpflichtversicherung und Geschäftsordnung</t>
+          <t>Notartermin - Eintragung des neuen Vorstandes ⭐️</t>
         </is>
       </c>
       <c r="C28" s="14" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D28" s="14" t="n"/>
       <c r="E28" s="35" t="n"/>
@@ -4439,11 +4439,11 @@
       <c r="A29" s="14" t="n"/>
       <c r="B29" s="14" t="inlineStr">
         <is>
-          <t>Notartermin - Eintragung des neuen Vorstandes ⭐️</t>
+          <t>Vorstandssitzung 02.10</t>
         </is>
       </c>
       <c r="C29" s="14" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D29" s="14" t="n"/>
       <c r="E29" s="35" t="n"/>
@@ -4454,11 +4454,11 @@
       <c r="A30" s="14" t="n"/>
       <c r="B30" s="14" t="inlineStr">
         <is>
-          <t>Vorstandssitzung August 2020 💩</t>
+          <t>Vorstandssitzung Oktober 2020 ⭐️</t>
         </is>
       </c>
       <c r="C30" s="14" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D30" s="14" t="n"/>
       <c r="E30" s="35" t="n"/>
@@ -4469,11 +4469,11 @@
       <c r="A31" s="14" t="n"/>
       <c r="B31" s="14" t="inlineStr">
         <is>
-          <t>Notartermin - Eintragung des neuen Vorstandes ⭐️</t>
+          <t>Vorstandssitzung September 2020 ⭐️</t>
         </is>
       </c>
       <c r="C31" s="14" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D31" s="14" t="n"/>
       <c r="E31" s="35" t="n"/>
@@ -4524,11 +4524,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Marie-Sophie Braun</t>
+          <t>Noah Brechmann</t>
         </is>
       </c>
       <c r="C35" s="14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
@@ -4539,11 +4539,11 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Noah Brechmann</t>
+          <t>Marie-Sophie Braun</t>
         </is>
       </c>
       <c r="C36" s="14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37">
@@ -4554,11 +4554,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Micha Landoll</t>
+          <t>Peter Augustin</t>
         </is>
       </c>
       <c r="C37" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
@@ -4569,11 +4569,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Christoph Netsch</t>
+          <t>Maria Lütticke</t>
         </is>
       </c>
       <c r="C38" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
@@ -4584,59 +4584,59 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Peter Augustin</t>
+          <t>Christoph Netsch</t>
         </is>
       </c>
       <c r="C39" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Marie-Sophie Braun</t>
+          <t>Noah Brechmann</t>
         </is>
       </c>
       <c r="F39" s="14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
       <c r="E40" t="inlineStr">
         <is>
-          <t>Noah Brechmann</t>
+          <t>Marie-Sophie Braun</t>
         </is>
       </c>
       <c r="F40" s="14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41">
       <c r="E41" t="inlineStr">
         <is>
-          <t>Micha Landoll</t>
+          <t>Peter Augustin</t>
         </is>
       </c>
       <c r="F41" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
       <c r="E42" t="inlineStr">
         <is>
-          <t>Christoph Netsch</t>
+          <t>Maria Lütticke</t>
         </is>
       </c>
       <c r="F42" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
       <c r="E43" t="inlineStr">
         <is>
-          <t>Peter Augustin</t>
+          <t>Christoph Netsch</t>
         </is>
       </c>
       <c r="F43" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="46">
@@ -4659,13 +4659,8 @@
           <t>1.</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Marie-Sophie Braun</t>
-        </is>
-      </c>
       <c r="C48" s="14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -4674,13 +4669,8 @@
           <t>2.</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Micha Landoll</t>
-        </is>
-      </c>
       <c r="C49" s="14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -4689,13 +4679,8 @@
           <t>3.</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Christoph Netsch</t>
-        </is>
-      </c>
       <c r="C50" s="14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50" s="14" t="inlineStr">
         <is>
@@ -4709,13 +4694,8 @@
           <t>4.</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Peter Augustin</t>
-        </is>
-      </c>
       <c r="C51" s="14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" s="14" t="n">
         <v>0</v>
@@ -4727,13 +4707,8 @@
           <t>5.</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Noah Brechmann</t>
-        </is>
-      </c>
       <c r="C52" s="14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52" s="14" t="n">
         <v>0</v>
@@ -4768,7 +4743,7 @@
         </is>
       </c>
       <c r="B60" s="14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F60" s="14" t="inlineStr">
         <is>
@@ -4776,17 +4751,17 @@
         </is>
       </c>
       <c r="G60" s="35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Micha Landoll</t>
+          <t>Peter Augustin</t>
         </is>
       </c>
       <c r="B61" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F61" s="14" t="inlineStr">
         <is>
@@ -4794,17 +4769,17 @@
         </is>
       </c>
       <c r="G61" s="35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Christoph Netsch</t>
+          <t>Maria Lütticke</t>
         </is>
       </c>
       <c r="B62" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F62" s="14" t="inlineStr">
         <is>
@@ -4819,11 +4794,11 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Peter Augustin</t>
+          <t>Christoph Netsch</t>
         </is>
       </c>
       <c r="B63" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
@@ -4833,7 +4808,7 @@
         </is>
       </c>
       <c r="B64" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65">
@@ -4855,7 +4830,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -4863,7 +4838,7 @@
         </is>
       </c>
       <c r="G70" s="35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71">
@@ -4873,7 +4848,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -4881,7 +4856,7 @@
         </is>
       </c>
       <c r="G71" s="35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
@@ -4894,8 +4869,13 @@
         <f>B70-B71-B73</f>
         <v/>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Christoph Netsch</t>
+        </is>
+      </c>
       <c r="G72" s="35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -4905,15 +4885,25 @@
         </is>
       </c>
       <c r="B73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Maria Lütticke</t>
+        </is>
+      </c>
+      <c r="G73" s="35" t="n">
         <v>1</v>
       </c>
-      <c r="G73" s="35" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="74">
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Peter Augustin</t>
+        </is>
+      </c>
       <c r="G74" s="35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
